--- a/SGMTYNY/Recursos/Datos/OportunidadesID.xlsx
+++ b/SGMTYNY/Recursos/Datos/OportunidadesID.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>0060R000008iXKfQAM</t>
+  </si>
+  <si>
+    <t>Inactivo</t>
   </si>
 </sst>
 </file>
@@ -374,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -398,12 +401,12 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -454,6 +457,14 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
         <v>2</v>
       </c>
     </row>

--- a/SGMTYNY/Recursos/Datos/OportunidadesID.xlsx
+++ b/SGMTYNY/Recursos/Datos/OportunidadesID.xlsx
@@ -380,7 +380,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
